--- a/data/trans_camb/P17_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P17_R-Edad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>10.56326024540044</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.776137897045639</v>
+        <v>3.776137897045651</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>10.25301449491502</v>
@@ -664,7 +664,7 @@
         <v>14.90547786903645</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.8823642458724024</v>
+        <v>-0.8823642458724135</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.721694303557349</v>
+        <v>4.589819558856114</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>12.56442003297562</v>
+        <v>12.08644330143064</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-14.78202249095765</v>
+        <v>-12.66763405542404</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.0838950771975</v>
+        <v>3.505090458067607</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.624023781224492</v>
+        <v>5.429842291745643</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.669389421900795</v>
+        <v>-3.937739997567252</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>6.092994349381495</v>
+        <v>5.930839837699246</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>10.78030863838042</v>
+        <v>10.86644255594109</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-6.781394749472171</v>
+        <v>-6.483843804142635</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.11017602091671</v>
+        <v>16.97204795423306</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>25.26749354900989</v>
+        <v>24.65189233961047</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.924154471154449</v>
+        <v>5.249187941184995</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.60924500330443</v>
+        <v>14.68931155524321</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>16.44539156864101</v>
+        <v>16.23298373775299</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.02239866286091</v>
+        <v>10.89734625267263</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>14.91318487459179</v>
+        <v>14.60292141050055</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>19.05334807815593</v>
+        <v>19.17784474379913</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.334159235092678</v>
+        <v>5.472739902537699</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.1550098969659872</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05541269766644991</v>
+        <v>0.05541269766645007</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1672206060975495</v>
@@ -769,7 +769,7 @@
         <v>0.2430995337683412</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.01439083930552984</v>
+        <v>-0.01439083930553002</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.08323403350851269</v>
+        <v>0.07837171086221861</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2150686952339557</v>
+        <v>0.2133012775375395</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2583117929720508</v>
+        <v>-0.2190449901682751</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.04401312507246032</v>
+        <v>0.05008690173458154</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06545672637919715</v>
+        <v>0.07199532761398104</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.06658364646344357</v>
+        <v>-0.05583205960336198</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09645537577455349</v>
+        <v>0.09354684357210329</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1696666378602517</v>
+        <v>0.1713529594717719</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1085383241381468</v>
+        <v>-0.1051084202423563</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3332135173073754</v>
+        <v>0.3287358652013065</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4941625584672031</v>
+        <v>0.4855806530220371</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.07607308273333442</v>
+        <v>0.1006923559567006</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2256390914442727</v>
+        <v>0.2270726843473201</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2525437999608641</v>
+        <v>0.2493918870943485</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1669710101276863</v>
+        <v>0.1661178972830256</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2526334177066336</v>
+        <v>0.2495851699156508</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3262669981467832</v>
+        <v>0.3274765582676463</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.08842349119785105</v>
+        <v>0.08992072987792661</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>16.08919524054831</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.219262579192587</v>
+        <v>7.219262579192598</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>6.258056286279656</v>
@@ -869,7 +869,7 @@
         <v>5.341415867663269</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-2.888076930698946</v>
+        <v>-2.888076930698957</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>11.65238301328876</v>
@@ -878,7 +878,7 @@
         <v>11.43763728168947</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>3.164236495851624</v>
+        <v>3.164236495851636</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>11.09055017191825</v>
+        <v>10.98310665927657</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>10.64690872918178</v>
+        <v>10.97168620496708</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.305146021104719</v>
+        <v>0.2584143086645036</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.248308305177678</v>
+        <v>1.205062025555189</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01866906263726765</v>
+        <v>0.2635321655312434</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-9.006221319486352</v>
+        <v>-8.460460337656206</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>8.23216703634718</v>
+        <v>8.007448126182942</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>8.056075061073756</v>
+        <v>7.855957494133205</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.151457404691135</v>
+        <v>-1.188983845928933</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>21.60514182586618</v>
+        <v>21.48373008929627</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>21.48734168398259</v>
+        <v>21.45195511297217</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.30410485413785</v>
+        <v>13.9518388298016</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.30693155017906</v>
+        <v>11.09307649044132</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>10.42098818210978</v>
+        <v>10.00684992122344</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.859659873144117</v>
+        <v>3.020998200295117</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>15.84426711106599</v>
+        <v>15.33839611136275</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>15.54427132329412</v>
+        <v>15.0622282579863</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.807063126785042</v>
+        <v>7.8843765529989</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.3241607409481665</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.1454517439674433</v>
+        <v>0.1454517439674435</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.08743210997201742</v>
@@ -974,7 +974,7 @@
         <v>0.07462560868487277</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.04034969457947006</v>
+        <v>-0.04034969457947021</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1950438870232725</v>
@@ -983,7 +983,7 @@
         <v>0.1914493568602136</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.05296470128968166</v>
+        <v>0.05296470128968185</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.212846024029214</v>
+        <v>0.2107935942226354</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2069488922668452</v>
+        <v>0.2115509389322233</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.002077034377630007</v>
+        <v>0.003868825012008318</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.01705818344853128</v>
+        <v>0.01574877165519226</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.00119152398798298</v>
+        <v>0.003433252652079423</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1195484299661808</v>
+        <v>-0.1136428012214835</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1328089092349075</v>
+        <v>0.1293888475294987</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1302134712571172</v>
+        <v>0.1276648347175946</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.01866913840887962</v>
+        <v>-0.01851831176108595</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4584547867573608</v>
+        <v>0.4647310097635591</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4669363804265704</v>
+        <v>0.4569543401976942</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3065354654779193</v>
+        <v>0.2962089693949104</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1642842903785176</v>
+        <v>0.1598847104666554</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1536371336373311</v>
+        <v>0.1445040705156407</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0288025936609878</v>
+        <v>0.04296207123116805</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2761499286637995</v>
+        <v>0.2643393408451567</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2678866716447209</v>
+        <v>0.2616763897759343</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1356369004834559</v>
+        <v>0.1355413683843468</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>11.31952596069555</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.624854411346246</v>
+        <v>3.624854411346257</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>7.766219093806759</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7701450896111021</v>
+        <v>1.539810234477987</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.611881306459116</v>
+        <v>6.248232271281803</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.012736783821589</v>
+        <v>-2.452215686826772</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.972806675224083</v>
+        <v>2.595739891544103</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.4945770228005805</v>
+        <v>-0.7414388104710549</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.747269961890947</v>
+        <v>-2.478869069651173</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.325118489028215</v>
+        <v>3.639236430324207</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>4.214057433015223</v>
+        <v>4.153721346874876</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.440045675194555</v>
+        <v>-1.653901919314543</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.90680667829337</v>
+        <v>12.67960621155968</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.40379912568969</v>
+        <v>17.5277227934992</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.483446068434114</v>
+        <v>9.282141064962692</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.62417523564475</v>
+        <v>12.72613883235959</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.270877348762047</v>
+        <v>9.678149791955375</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.562069666928402</v>
+        <v>7.026724902336381</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>11.04081088811263</v>
+        <v>10.79363278089867</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>11.7517051002236</v>
+        <v>11.56080926840272</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.471011310179025</v>
+        <v>6.286102134725565</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1993764375124747</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.06384636260785469</v>
+        <v>0.06384636260785488</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1129820275585371</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.0133256971846979</v>
+        <v>0.02716589378846989</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.0964465358197325</v>
+        <v>0.1034884611538839</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.03385017665494603</v>
+        <v>-0.03857859171533454</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.04257691199979226</v>
+        <v>0.0364295917912132</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.00704954163184373</v>
+        <v>-0.01096826422067265</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.03830911710889919</v>
+        <v>-0.03458333654682243</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05131848416399049</v>
+        <v>0.05484997602785415</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.06588660493496214</v>
+        <v>0.06310002165294974</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.02207629865378712</v>
+        <v>-0.02527567243626165</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2205830225803959</v>
+        <v>0.2356642335731596</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3055765844546089</v>
+        <v>0.3295491179586136</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1750270525797154</v>
+        <v>0.1770019157575025</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1951747671596158</v>
+        <v>0.1963663677837798</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1397993536940807</v>
+        <v>0.1470934144001569</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09956343176218632</v>
+        <v>0.1059403665088959</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1816041373132203</v>
+        <v>0.1780445275421318</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1963135912300005</v>
+        <v>0.1895792581922534</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1047286879504396</v>
+        <v>0.1035889150780928</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>12.64489798918303</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7.485801721915708</v>
+        <v>7.485801721915697</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.579647764252313</v>
@@ -1306,7 +1306,7 @@
         <v>7.816047415410143</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.670689119232827</v>
+        <v>2.670689119232839</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.6164289391162364</v>
+        <v>-0.27133202390571</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.759507755788927</v>
+        <v>6.436578040649245</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.52798601725026</v>
+        <v>1.804202135704464</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.146490437426146</v>
+        <v>-2.41812601601826</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.173196302456996</v>
+        <v>-1.734828727295797</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-6.976894257811734</v>
+        <v>-6.741773086800415</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.09612319069067073</v>
+        <v>0.1483069705713989</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>3.483783727535387</v>
+        <v>4.127631084183218</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.04561394062203</v>
+        <v>-0.956628614562349</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.70817418951911</v>
+        <v>12.2796105984636</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>18.43971262792435</v>
+        <v>19.09352627700251</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13.24923785930916</v>
+        <v>13.61573956708447</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.36285904745613</v>
+        <v>7.42637943404665</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.71590468995879</v>
+        <v>8.300886201975874</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.85073691314791</v>
+        <v>2.715934816578707</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.169968988660379</v>
+        <v>8.188646477760191</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>11.62963709031856</v>
+        <v>12.04186639203478</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.354995046868366</v>
+        <v>6.462972919265934</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.2095696863117469</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.1240656207741512</v>
+        <v>0.124065620774151</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.03380619612651778</v>
@@ -1411,7 +1411,7 @@
         <v>0.114423245726304</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.03909762839284266</v>
+        <v>0.03909762839284282</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.01190677584346664</v>
+        <v>-0.005376981535706448</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1060177598291977</v>
+        <v>0.1042255474701169</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.03893806538707036</v>
+        <v>0.02864933036115943</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.0270755259604964</v>
+        <v>-0.02995168073702064</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.02732437903974316</v>
+        <v>-0.02169473925170302</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.08700162854581996</v>
+        <v>-0.08575345548843692</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.001543963389919896</v>
+        <v>0.001722010649314011</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.05069449895208685</v>
+        <v>0.05866778036084895</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.01487303335085972</v>
+        <v>-0.01362962791753877</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2038754269684518</v>
+        <v>0.2137006470012181</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3283817956608095</v>
+        <v>0.3391766275534652</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2345998583958403</v>
+        <v>0.2418390372988205</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1152833348789152</v>
+        <v>0.1019267374495763</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1041961775578643</v>
+        <v>0.1128922688761712</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03972683338594293</v>
+        <v>0.03695256882270567</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1235624389762673</v>
+        <v>0.1240885964570973</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1770883972812405</v>
+        <v>0.1849629111547542</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.09642279329399063</v>
+        <v>0.0990783667207709</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.4135456320550457</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.718551354156105</v>
+        <v>0.7185513541561273</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>8.999430920864782</v>
@@ -1511,7 +1511,7 @@
         <v>5.533463680184713</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-0.2010051957600401</v>
+        <v>-0.2010051957600512</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>4.790634928492931</v>
@@ -1520,7 +1520,7 @@
         <v>3.030232570609581</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.2078163956153234</v>
+        <v>0.2078163956153456</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.510192384763723</v>
+        <v>-5.471694149596375</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.074826133793526</v>
+        <v>-5.893978776444906</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.60875934072331</v>
+        <v>-4.431048998285147</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4.058216771431731</v>
+        <v>4.590245978834757</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2325464280678701</v>
+        <v>0.5197338652214287</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.910421678939045</v>
+        <v>-4.682208273697451</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.9603109515417313</v>
+        <v>0.8582969751833891</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.019279375216693</v>
+        <v>-0.911019899786532</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-3.351355092349674</v>
+        <v>-3.241658124070022</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.766522915248927</v>
+        <v>6.848734013691106</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.134988064923718</v>
+        <v>6.363003663107876</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.093210391277788</v>
+        <v>6.129993733781185</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14.00713317814414</v>
+        <v>14.12013805203123</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>10.46233687641693</v>
+        <v>10.68913136786375</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.163371758375995</v>
+        <v>3.958883201989268</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.698005591035399</v>
+        <v>8.863078458577576</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>7.003843676658618</v>
+        <v>6.801569600678262</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.704595392070484</v>
+        <v>3.590958540081885</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.0054027161633232</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.009387425992109679</v>
+        <v>0.00938742599210997</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.1108942037518654</v>
@@ -1616,7 +1616,7 @@
         <v>0.06818531684945529</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.002476857851324617</v>
+        <v>-0.002476857851324754</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.06071882873312616</v>
@@ -1625,7 +1625,7 @@
         <v>0.03840663611874621</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.002633965710526804</v>
+        <v>0.002633965710527086</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.06872658428683938</v>
+        <v>-0.0695876164902582</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.06573294764687854</v>
+        <v>-0.07349562376491671</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.05730235170981101</v>
+        <v>-0.05656687054493129</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.04880582316652535</v>
+        <v>0.0561705808708656</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.004739315551517922</v>
+        <v>0.006698725548300896</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.0588475795498301</v>
+        <v>-0.0553006250765332</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0118511293541473</v>
+        <v>0.01047700350806541</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.01233942135493948</v>
+        <v>-0.01087933412636146</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.04119679783754372</v>
+        <v>-0.03992213832083684</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.09001618081016508</v>
+        <v>0.09489333181510394</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.08336916986347193</v>
+        <v>0.08583551401099339</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.08379663328022838</v>
+        <v>0.08274474893438021</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.180742055453165</v>
+        <v>0.1826503742878628</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1358715246340332</v>
+        <v>0.136919470801167</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.05359618802508677</v>
+        <v>0.05071755704869545</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1128250621485393</v>
+        <v>0.1162127322136987</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.0916258697479293</v>
+        <v>0.08860807935993412</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.04872870062170268</v>
+        <v>0.0469741594958387</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>2.076766429315557</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-6.100868809441751</v>
+        <v>-6.100868809441762</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>1.498266382463498</v>
@@ -1734,7 +1734,7 @@
         <v>0.504278216335452</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-4.730861338098558</v>
+        <v>-4.730861338098546</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.254353891888771</v>
+        <v>-0.9366457917249394</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.711489601312373</v>
+        <v>-2.964566748972281</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-11.61163755117198</v>
+        <v>-11.63491860051114</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.544388163613892</v>
+        <v>-3.23446500226936</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-5.427597670119674</v>
+        <v>-5.666703405984997</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-6.898408261462477</v>
+        <v>-6.704637318455303</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.4268711678815941</v>
+        <v>-0.7624875238702888</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.684785098918511</v>
+        <v>-3.04199594511996</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-7.767369182819212</v>
+        <v>-8.081831108721868</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>9.591973189867197</v>
+        <v>9.624624070673056</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>7.424577993887477</v>
+        <v>7.846315163642541</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-0.9898937034795887</v>
+        <v>-0.6031177509940991</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6.294320126888454</v>
+        <v>5.399889039603259</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.475461398022779</v>
+        <v>3.383572813341344</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>0.6204461618791282</v>
+        <v>0.5866308646826818</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>6.816778602386754</v>
+        <v>6.194348098817409</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.248556783977006</v>
+        <v>4.111375306966047</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-1.344255561271406</v>
+        <v>-1.492382593511752</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.02442492902449019</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.07175255028917778</v>
+        <v>-0.07175255028917792</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.01661515565568921</v>
@@ -1839,7 +1839,7 @@
         <v>0.00574341883335915</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.05388160191550141</v>
+        <v>-0.05388160191550128</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.01409993441913057</v>
+        <v>-0.01050123222095063</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.04109596074757644</v>
+        <v>-0.03365754863577059</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.130682853200617</v>
+        <v>-0.1314256011982352</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.02760926832478796</v>
+        <v>-0.03429188209892053</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.05880500591663566</v>
+        <v>-0.06135315746714095</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.07487510739338481</v>
+        <v>-0.07317030023975962</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.004921050829213461</v>
+        <v>-0.008361122395962808</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.02985569247022622</v>
+        <v>-0.03394326635461219</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.08670352637135545</v>
+        <v>-0.09026872789660363</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1189042123337822</v>
+        <v>0.118007243621635</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.09012987679013866</v>
+        <v>0.09459612978427952</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.01230124249606839</v>
+        <v>-0.007388364457999516</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.07195012311766458</v>
+        <v>0.0628195521801516</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.03972004932014234</v>
+        <v>0.03838667170638372</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.006792018108386879</v>
+        <v>0.00671783062780571</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.08020602996485447</v>
+        <v>0.07207227015339278</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.05013882780566115</v>
+        <v>0.04756054961229864</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.0153233631412831</v>
+        <v>-0.01767767029026413</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>2.159574959396171</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-1.38746475096323</v>
+        <v>-1.387464750963252</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-2.339498896739267</v>
@@ -1939,7 +1939,7 @@
         <v>-1.095229364750672</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-7.147838528958239</v>
+        <v>-7.14783852895825</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-0.04542370576551269</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.627620287828767</v>
+        <v>-1.858800922601229</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.437006311950169</v>
+        <v>-3.345924567929844</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-6.07868389464236</v>
+        <v>-6.604055042266122</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-6.267560368928988</v>
+        <v>-6.374387409911751</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-5.103257071906976</v>
+        <v>-5.088017573124564</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-10.48421510178027</v>
+        <v>-10.68954258497598</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-3.222039129899553</v>
+        <v>-3.371973362066117</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.7325992696623</v>
+        <v>-2.748827547319495</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-7.723981209964986</v>
+        <v>-7.906043969567099</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>9.198255419356194</v>
+        <v>8.933380699347031</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>7.498751779455319</v>
+        <v>7.11319415814893</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.33337130021788</v>
+        <v>4.137662896366408</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.877142708881278</v>
+        <v>1.198735744870623</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.728718472229566</v>
+        <v>2.488936638158275</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-3.523278469092114</v>
+        <v>-3.659052913485778</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>3.10859914504626</v>
+        <v>2.938352279194541</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.340686293526132</v>
+        <v>3.335860462925627</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-1.840362889293003</v>
+        <v>-1.895289313742704</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.02407970626324956</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.01547051817231147</v>
+        <v>-0.01547051817231172</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.02477646388705909</v>
@@ -2044,7 +2044,7 @@
         <v>-0.01159902697180709</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.07569918644975565</v>
+        <v>-0.07569918644975576</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.0004905640242273871</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.01744559265124017</v>
+        <v>-0.01962905368043757</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.02573450554620785</v>
+        <v>-0.03648899955086533</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.06440407338082606</v>
+        <v>-0.07066659297347354</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.06508624751308029</v>
+        <v>-0.0677188870611497</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.05357746248094884</v>
+        <v>-0.05338086652714207</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1095518359258428</v>
+        <v>-0.1115585748221262</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.03473219863294729</v>
+        <v>-0.03583859941246126</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.02925578515707307</v>
+        <v>-0.028980802332036</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.08211916374147749</v>
+        <v>-0.08337836991679629</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.106488340016814</v>
+        <v>0.1033022725895924</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.08797770386343093</v>
+        <v>0.08249623819176258</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.05104815029903594</v>
+        <v>0.04874789968518125</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.02085352402628862</v>
+        <v>0.01277603115123381</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.02924731578278883</v>
+        <v>0.0269365918282146</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.03843375981396343</v>
+        <v>-0.04012201382617493</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.03431696254650331</v>
+        <v>0.03215989380235195</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.03679389052325448</v>
+        <v>0.03682572414441961</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.02023126026907049</v>
+        <v>-0.02047589708572019</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>11.81544348140621</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>5.282972674374364</v>
+        <v>5.282972674374387</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>5.655053060920512</v>
@@ -2153,7 +2153,7 @@
         <v>4.901741508834512</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>0.3066860845147734</v>
+        <v>0.3066860845147956</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>7.131508146689591</v>
@@ -2162,7 +2162,7 @@
         <v>8.317526542732312</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>2.80637188617846</v>
+        <v>2.806371886178449</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>6.313279769532576</v>
+        <v>6.32944866341665</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>9.421566603117558</v>
+        <v>9.599782586411886</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2.709511096533799</v>
+        <v>2.808041301927034</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3.587122542775495</v>
+        <v>3.580005956826038</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>2.878895028644053</v>
+        <v>3.138938768488233</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-1.874262644678494</v>
+        <v>-1.666827724935764</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>5.536495926866865</v>
+        <v>5.597183322328463</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>6.950105233483018</v>
+        <v>6.752041739048392</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>1.288943446153656</v>
+        <v>1.144311903384822</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>10.90432616389296</v>
+        <v>10.95803084735888</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>14.08906324289586</v>
+        <v>14.31615035906212</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>7.646632774798786</v>
+        <v>7.830901095930656</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>7.554080016471616</v>
+        <v>7.52771140222428</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>6.72049763458701</v>
+        <v>6.920103089763506</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2.243633735038869</v>
+        <v>2.008322192498226</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>8.638725860424895</v>
+        <v>8.666591115093569</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>9.7258352038433</v>
+        <v>9.697862457123177</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>4.453397614577217</v>
+        <v>4.404058643071532</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.1892809877790679</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.08463214163641308</v>
+        <v>0.08463214163641344</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.07389400181738046</v>
@@ -2258,7 +2258,7 @@
         <v>0.0640505565659869</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.004007435799870474</v>
+        <v>0.004007435799870764</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.1024745799346433</v>
@@ -2267,7 +2267,7 @@
         <v>0.1195168007986346</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.04032552081007216</v>
+        <v>0.040325520810072</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.0993269532854537</v>
+        <v>0.09884424550159902</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.1499706593242584</v>
+        <v>0.1529553000535902</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.04212068507497396</v>
+        <v>0.04507002304645084</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.04622258573675245</v>
+        <v>0.0461359475718311</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.03695518834689666</v>
+        <v>0.04003969157302917</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.02399693861497681</v>
+        <v>-0.02143313504247309</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.07904460391768928</v>
+        <v>0.07947126714110302</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.09884425638301961</v>
+        <v>0.09600779250855142</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.01839741972260701</v>
+        <v>0.016346644717102</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.178749683173061</v>
+        <v>0.1811522437000259</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.2307966047986202</v>
+        <v>0.2367271579372315</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.124820573826781</v>
+        <v>0.1290972484632351</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.09992168053010719</v>
+        <v>0.09981703852576433</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.08909369861910461</v>
+        <v>0.09181381871726355</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.0295835361592378</v>
+        <v>0.02653462466332036</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1258331038942408</v>
+        <v>0.1262254657770013</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.1420495491730491</v>
+        <v>0.1412986964869319</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.06492735416438095</v>
+        <v>0.06418473875066513</v>
       </c>
     </row>
     <row r="52">
